--- a/test_data/validRegisterValidOtp.xlsx
+++ b/test_data/validRegisterValidOtp.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Test Automation\Kalemon\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0DAE65B-3EAA-4393-AADA-D8698D1A87EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD311E00-B682-4E9D-8532-FFF1C652F867}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>Name</t>
   </si>
@@ -48,7 +48,10 @@
     <t>000000</t>
   </si>
   <si>
-    <t>Test2 Automation Fayoumi40</t>
+    <t>792121074</t>
+  </si>
+  <si>
+    <t>MOHD1 Test23 Automation3 Fayoumi40</t>
   </si>
 </sst>
 </file>
@@ -93,7 +96,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -105,6 +108,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -389,7 +395,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -420,10 +426,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>7</v>
-      </c>
-      <c r="B2" s="1">
-        <v>791110075</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>5</v>
